--- a/Sheet1.xlsx
+++ b/Sheet1.xlsx
@@ -5,17 +5,25 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b654b8c0fc1e825b/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\apbads deck\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3643A5B-63B6-42B7-BFA2-5AAA60DB4BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81D924A-A6B9-473E-AB01-3AE6154DE036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{45700D29-8EC0-4ABE-9B68-80257D66E4A8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="4" xr2:uid="{45700D29-8EC0-4ABE-9B68-80257D66E4A8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet4" sheetId="1" r:id="rId1"/>
+    <sheet name="Scenario PivotTable" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Scenario Summary" sheetId="4" r:id="rId3"/>
+    <sheet name="Scenario Summary 2" sheetId="5" r:id="rId4"/>
+    <sheet name="Scenario Summary 3" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="104" r:id="rId7"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="35">
   <si>
     <t>Month</t>
   </si>
@@ -54,6 +62,93 @@
   </si>
   <si>
     <t>Monthly Payment</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>$B$9</t>
+  </si>
+  <si>
+    <t>$B$10</t>
+  </si>
+  <si>
+    <t>$B$11</t>
+  </si>
+  <si>
+    <t>$B$12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> change</t>
+  </si>
+  <si>
+    <t>$B$9:$B$12 by</t>
+  </si>
+  <si>
+    <t>(All)</t>
+  </si>
+  <si>
+    <t>Forecast(Sales)</t>
+  </si>
+  <si>
+    <t>Lower Confidence Bound(Sales)</t>
+  </si>
+  <si>
+    <t>Upper Confidence Bound(Sales)</t>
+  </si>
+  <si>
+    <t>Created by Shakul Malik on 5/27/2024</t>
+  </si>
+  <si>
+    <t>interest change</t>
+  </si>
+  <si>
+    <t>Scenario Summary</t>
+  </si>
+  <si>
+    <t>Changing Cells:</t>
+  </si>
+  <si>
+    <t>Current Values:</t>
+  </si>
+  <si>
+    <t>Result Cells:</t>
+  </si>
+  <si>
+    <t>Notes:  Current Values column represents values of changing cells at</t>
+  </si>
+  <si>
+    <t>time Scenario Summary Report was created.  Changing cells for each</t>
+  </si>
+  <si>
+    <t>scenario are highlighted in gray.</t>
+  </si>
+  <si>
+    <t>$C$9</t>
+  </si>
+  <si>
+    <t>$D$9</t>
+  </si>
+  <si>
+    <t>$C$10</t>
+  </si>
+  <si>
+    <t>$D$10</t>
+  </si>
+  <si>
+    <t>$C$11</t>
+  </si>
+  <si>
+    <t>$D$11</t>
+  </si>
+  <si>
+    <t>$C$12</t>
+  </si>
+  <si>
+    <t>$D$12</t>
+  </si>
+  <si>
+    <t>cccc</t>
   </si>
 </sst>
 </file>
@@ -64,7 +159,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,16 +174,72 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="9"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="18"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="9"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="20"/>
+        <bgColor indexed="24"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="24"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="7"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -96,23 +247,111 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -123,6 +362,1391 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.77494334947262E-2"/>
+          <c:y val="0.1038961038961039"/>
+          <c:w val="0.93459356710845931"/>
+          <c:h val="0.80262030882503321"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>170</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D300-4A76-BEDE-AF9DC9ADF154}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Forecast(Sales)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>45292</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45293</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45294</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45295</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45296</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45297</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45298</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45299</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45301</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45302</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45303</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45304</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45305</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="4">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200.32588466368134</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>217.45631203927343</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>234.58673941486549</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>251.71716679045755</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>268.84759416604959</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>285.97802154164168</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>303.10844891723377</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>320.23887629282581</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>337.3693036684179</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D300-4A76-BEDE-AF9DC9ADF154}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lower Confidence Bound(Sales)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="E97132"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>45292</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45293</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45294</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45295</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45296</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45297</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45298</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45299</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45301</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45302</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45303</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45304</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45305</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$2:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="4" formatCode="0.00">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>157.53691935480023</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>173.34005876580204</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00">
+                  <c:v>189.1718410439974</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>205.02983673789035</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>220.91192013424549</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00">
+                  <c:v>236.81621900994554</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00">
+                  <c:v>252.74107456562828</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00">
+                  <c:v>268.68500913038753</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00">
+                  <c:v>284.64669987327818</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D300-4A76-BEDE-AF9DC9ADF154}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Upper Confidence Bound(Sales)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="E97132"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>45292</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45293</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45294</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45295</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45296</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45297</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45298</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45299</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45301</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45302</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45303</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45304</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45305</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$2:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="4" formatCode="0.00">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>243.11484997256244</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>261.57256531274481</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00">
+                  <c:v>280.00163778573358</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>298.40449684302473</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>316.78326819785366</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00">
+                  <c:v>335.13982407333782</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00">
+                  <c:v>353.47582326883924</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00">
+                  <c:v>371.79274345526409</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00">
+                  <c:v>390.09190746355762</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D300-4A76-BEDE-AF9DC9ADF154}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="231968831"/>
+        <c:axId val="231981791"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="231968831"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="231981791"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="231981791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="231968831"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>474345</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>89535</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF86502B-F7A3-22A7-AD96-F96BD69859B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Shakul Malik" refreshedDate="45439.896684953703" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="1" xr:uid="{F2F4805C-6606-47EE-A651-63FDD256159C}">
+  <cacheSource type="scenario"/>
+  <cacheFields count="6">
+    <cacheField name="$B$9:$B$12" numFmtId="0">
+      <sharedItems containsNonDate="0" count="1">
+        <s v=" change"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="$B$9:$B$12 by" numFmtId="0">
+      <sharedItems containsNonDate="0" count="1">
+        <s v="Shakul Malik"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="res $B$9" numFmtId="0">
+      <sharedItems containsNonDate="0" count="1">
+        <s v="Interest Rate"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="res $B$10" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0" containsNumber="1" minValue="0.08" maxValue="0.08" count="1">
+        <n v="0.08"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="res $B$11" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0" containsNumber="1" minValue="0.01" maxValue="0.01" count="1">
+        <n v="0.01"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="res $B$12" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0" containsNumber="1" minValue="0.13" maxValue="0.13" count="1">
+        <n v="0.13"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{09334EA0-8D56-4A37-AEFB-D0514EE4C222}" name="PivotTable42" cacheId="104" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Result Cells" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A3:E4" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="1">
+        <item x="0"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="1">
+    <i>
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="4">
+    <dataField name="$B$9" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="$B$10" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="$B$11" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="$B$12" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8A93951B-13ED-4249-9FDE-65E735886829}" name="Table1" displayName="Table1" ref="A1:E15" totalsRowShown="0">
+  <autoFilter ref="A1:E15" xr:uid="{8A93951B-13ED-4249-9FDE-65E735886829}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{B4917606-F99D-448A-831B-A72D21FCCF4F}" name="Month" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{A54D5E3B-A031-43B2-8FCD-1746A215A44C}" name="Sales"/>
+    <tableColumn id="3" xr3:uid="{84EC8DD5-75B5-4BF4-8495-6B574863C967}" name="Forecast(Sales)">
+      <calculatedColumnFormula>_xlfn.FORECAST.ETS(A2,$B$2:$B$6,$A$2:$A$6,1,1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{82797A2F-250C-4D00-AA93-D1904D000EC0}" name="Lower Confidence Bound(Sales)" dataDxfId="1">
+      <calculatedColumnFormula>C2-_xlfn.FORECAST.ETS.CONFINT(A2,$B$2:$B$6,$A$2:$A$6,0.95,1,1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{75E85466-1B10-4F38-8912-4B17689D2801}" name="Upper Confidence Bound(Sales)" dataDxfId="0">
+      <calculatedColumnFormula>C2+_xlfn.FORECAST.ETS.CONFINT(A2,$B$2:$B$6,$A$2:$A$6,0.95,1,1)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -441,22 +2065,1127 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F809E90-FB72-4737-8BBB-E8D8AA8C4116}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="6.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3E5DEAF-BB80-49C5-B0CA-7949D213005D}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="29.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>45292</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45293</v>
+      </c>
+      <c r="B3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45294</v>
+      </c>
+      <c r="B4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45295</v>
+      </c>
+      <c r="B5">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45296</v>
+      </c>
+      <c r="B6">
+        <v>170</v>
+      </c>
+      <c r="C6">
+        <v>170</v>
+      </c>
+      <c r="D6" s="8">
+        <v>170</v>
+      </c>
+      <c r="E6" s="8">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45297</v>
+      </c>
+      <c r="C7">
+        <f>_xlfn.FORECAST.ETS(A7,$B$2:$B$6,$A$2:$A$6,1,1)</f>
+        <v>200.32588466368134</v>
+      </c>
+      <c r="D7" s="8">
+        <f>C7-_xlfn.FORECAST.ETS.CONFINT(A7,$B$2:$B$6,$A$2:$A$6,0.95,1,1)</f>
+        <v>157.53691935480023</v>
+      </c>
+      <c r="E7" s="8">
+        <f>C7+_xlfn.FORECAST.ETS.CONFINT(A7,$B$2:$B$6,$A$2:$A$6,0.95,1,1)</f>
+        <v>243.11484997256244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45298</v>
+      </c>
+      <c r="C8">
+        <f>_xlfn.FORECAST.ETS(A8,$B$2:$B$6,$A$2:$A$6,1,1)</f>
+        <v>217.45631203927343</v>
+      </c>
+      <c r="D8" s="8">
+        <f>C8-_xlfn.FORECAST.ETS.CONFINT(A8,$B$2:$B$6,$A$2:$A$6,0.95,1,1)</f>
+        <v>173.34005876580204</v>
+      </c>
+      <c r="E8" s="8">
+        <f>C8+_xlfn.FORECAST.ETS.CONFINT(A8,$B$2:$B$6,$A$2:$A$6,0.95,1,1)</f>
+        <v>261.57256531274481</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45299</v>
+      </c>
+      <c r="C9">
+        <f>_xlfn.FORECAST.ETS(A9,$B$2:$B$6,$A$2:$A$6,1,1)</f>
+        <v>234.58673941486549</v>
+      </c>
+      <c r="D9" s="8">
+        <f>C9-_xlfn.FORECAST.ETS.CONFINT(A9,$B$2:$B$6,$A$2:$A$6,0.95,1,1)</f>
+        <v>189.1718410439974</v>
+      </c>
+      <c r="E9" s="8">
+        <f>C9+_xlfn.FORECAST.ETS.CONFINT(A9,$B$2:$B$6,$A$2:$A$6,0.95,1,1)</f>
+        <v>280.00163778573358</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45300</v>
+      </c>
+      <c r="C10">
+        <f>_xlfn.FORECAST.ETS(A10,$B$2:$B$6,$A$2:$A$6,1,1)</f>
+        <v>251.71716679045755</v>
+      </c>
+      <c r="D10" s="8">
+        <f>C10-_xlfn.FORECAST.ETS.CONFINT(A10,$B$2:$B$6,$A$2:$A$6,0.95,1,1)</f>
+        <v>205.02983673789035</v>
+      </c>
+      <c r="E10" s="8">
+        <f>C10+_xlfn.FORECAST.ETS.CONFINT(A10,$B$2:$B$6,$A$2:$A$6,0.95,1,1)</f>
+        <v>298.40449684302473</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45301</v>
+      </c>
+      <c r="C11">
+        <f>_xlfn.FORECAST.ETS(A11,$B$2:$B$6,$A$2:$A$6,1,1)</f>
+        <v>268.84759416604959</v>
+      </c>
+      <c r="D11" s="8">
+        <f>C11-_xlfn.FORECAST.ETS.CONFINT(A11,$B$2:$B$6,$A$2:$A$6,0.95,1,1)</f>
+        <v>220.91192013424549</v>
+      </c>
+      <c r="E11" s="8">
+        <f>C11+_xlfn.FORECAST.ETS.CONFINT(A11,$B$2:$B$6,$A$2:$A$6,0.95,1,1)</f>
+        <v>316.78326819785366</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45302</v>
+      </c>
+      <c r="C12">
+        <f>_xlfn.FORECAST.ETS(A12,$B$2:$B$6,$A$2:$A$6,1,1)</f>
+        <v>285.97802154164168</v>
+      </c>
+      <c r="D12" s="8">
+        <f>C12-_xlfn.FORECAST.ETS.CONFINT(A12,$B$2:$B$6,$A$2:$A$6,0.95,1,1)</f>
+        <v>236.81621900994554</v>
+      </c>
+      <c r="E12" s="8">
+        <f>C12+_xlfn.FORECAST.ETS.CONFINT(A12,$B$2:$B$6,$A$2:$A$6,0.95,1,1)</f>
+        <v>335.13982407333782</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45303</v>
+      </c>
+      <c r="C13">
+        <f>_xlfn.FORECAST.ETS(A13,$B$2:$B$6,$A$2:$A$6,1,1)</f>
+        <v>303.10844891723377</v>
+      </c>
+      <c r="D13" s="8">
+        <f>C13-_xlfn.FORECAST.ETS.CONFINT(A13,$B$2:$B$6,$A$2:$A$6,0.95,1,1)</f>
+        <v>252.74107456562828</v>
+      </c>
+      <c r="E13" s="8">
+        <f>C13+_xlfn.FORECAST.ETS.CONFINT(A13,$B$2:$B$6,$A$2:$A$6,0.95,1,1)</f>
+        <v>353.47582326883924</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45304</v>
+      </c>
+      <c r="C14">
+        <f>_xlfn.FORECAST.ETS(A14,$B$2:$B$6,$A$2:$A$6,1,1)</f>
+        <v>320.23887629282581</v>
+      </c>
+      <c r="D14" s="8">
+        <f>C14-_xlfn.FORECAST.ETS.CONFINT(A14,$B$2:$B$6,$A$2:$A$6,0.95,1,1)</f>
+        <v>268.68500913038753</v>
+      </c>
+      <c r="E14" s="8">
+        <f>C14+_xlfn.FORECAST.ETS.CONFINT(A14,$B$2:$B$6,$A$2:$A$6,0.95,1,1)</f>
+        <v>371.79274345526409</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45305</v>
+      </c>
+      <c r="C15">
+        <f>_xlfn.FORECAST.ETS(A15,$B$2:$B$6,$A$2:$A$6,1,1)</f>
+        <v>337.3693036684179</v>
+      </c>
+      <c r="D15" s="8">
+        <f>C15-_xlfn.FORECAST.ETS.CONFINT(A15,$B$2:$B$6,$A$2:$A$6,0.95,1,1)</f>
+        <v>284.64669987327818</v>
+      </c>
+      <c r="E15" s="8">
+        <f>C15+_xlfn.FORECAST.ETS.CONFINT(A15,$B$2:$B$6,$A$2:$A$6,0.95,1,1)</f>
+        <v>390.09190746355762</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{434CBE92-4B5A-43D9-870A-BAAA8E3E3033}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="B1:F17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12.6640625" bestFit="1" customWidth="1" outlineLevel="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+    </row>
+    <row r="3" spans="2:6" ht="15.6" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="21.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="16"/>
+      <c r="C6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="E7" s="22">
+        <v>0.08</v>
+      </c>
+      <c r="F7" s="22">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="16"/>
+      <c r="C8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="E8" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="F8" s="23">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="16"/>
+      <c r="C9" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0.13</v>
+      </c>
+      <c r="E9" s="22">
+        <v>0.13</v>
+      </c>
+      <c r="F9" s="22">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+    </row>
+    <row r="11" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="16"/>
+      <c r="C11" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="16"/>
+      <c r="C12" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="16"/>
+      <c r="C13" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="E13" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="F13" s="11">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="18"/>
+      <c r="C14" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="12">
+        <v>0.13</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0.13</v>
+      </c>
+      <c r="F14" s="12">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24433DFA-9B50-49AC-856B-728F2D558C0C}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="B1:F17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12.6640625" bestFit="1" customWidth="1" outlineLevel="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+    </row>
+    <row r="3" spans="2:6" ht="15.6" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="21.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="16"/>
+      <c r="C6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="E7" s="22">
+        <v>0.08</v>
+      </c>
+      <c r="F7" s="22">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="16"/>
+      <c r="C8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="E8" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="F8" s="23">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="16"/>
+      <c r="C9" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0.13</v>
+      </c>
+      <c r="E9" s="22">
+        <v>0.13</v>
+      </c>
+      <c r="F9" s="22">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+    </row>
+    <row r="11" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="16"/>
+      <c r="C11" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="16"/>
+      <c r="C12" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="16"/>
+      <c r="C13" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="E13" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="F13" s="11">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="18"/>
+      <c r="C14" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="12">
+        <v>0.13</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0.13</v>
+      </c>
+      <c r="F14" s="12">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA035F78-BB4C-4B77-A8E7-C571C59938E0}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="B1:G25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="15" bestFit="1" customWidth="1" outlineLevel="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+    </row>
+    <row r="3" spans="2:7" ht="15.6" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="21.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="16"/>
+      <c r="C6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="E7" s="22">
+        <v>0.08</v>
+      </c>
+      <c r="F7" s="22">
+        <v>0.02</v>
+      </c>
+      <c r="G7" s="22">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="16"/>
+      <c r="C8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="E8" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="F8" s="23">
+        <v>0.09</v>
+      </c>
+      <c r="G8" s="23">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="16"/>
+      <c r="C9" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0.13</v>
+      </c>
+      <c r="E9" s="22">
+        <v>0.13</v>
+      </c>
+      <c r="F9" s="22">
+        <v>0.7</v>
+      </c>
+      <c r="G9" s="22">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="16"/>
+      <c r="C11" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="16"/>
+      <c r="C12" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="16"/>
+      <c r="C13" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="16"/>
+      <c r="C14" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="E14" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="F14" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="G14" s="10">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="16"/>
+      <c r="C15" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="9">
+        <v>5</v>
+      </c>
+      <c r="E15" s="9">
+        <v>5</v>
+      </c>
+      <c r="F15" s="9">
+        <v>5</v>
+      </c>
+      <c r="G15" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="16"/>
+      <c r="C16" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="25">
+        <v>2027.6394288413701</v>
+      </c>
+      <c r="E16" s="25">
+        <v>2027.6394288413701</v>
+      </c>
+      <c r="F16" s="25">
+        <v>1752.7760053244399</v>
+      </c>
+      <c r="G16" s="25">
+        <v>1709.37474454528</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="16"/>
+      <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="E17" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="F17" s="11">
+        <v>0.09</v>
+      </c>
+      <c r="G17" s="11">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="16"/>
+      <c r="C18" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="9">
+        <v>8</v>
+      </c>
+      <c r="E18" s="9">
+        <v>8</v>
+      </c>
+      <c r="F18" s="9">
+        <v>8</v>
+      </c>
+      <c r="G18" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="16"/>
+      <c r="C19" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="25">
+        <v>2168.6451317618498</v>
+      </c>
+      <c r="E19" s="25">
+        <v>2168.6451317618498</v>
+      </c>
+      <c r="F19" s="25">
+        <v>2930.0406547385901</v>
+      </c>
+      <c r="G19" s="25">
+        <v>2930.0406547385901</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="16"/>
+      <c r="C20" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="10">
+        <v>0.13</v>
+      </c>
+      <c r="E20" s="10">
+        <v>0.13</v>
+      </c>
+      <c r="F20" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="G20" s="10">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="16"/>
+      <c r="C21" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="9">
+        <v>10</v>
+      </c>
+      <c r="E21" s="9">
+        <v>10</v>
+      </c>
+      <c r="F21" s="9">
+        <v>10</v>
+      </c>
+      <c r="G21" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="18"/>
+      <c r="C22" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="26">
+        <v>4479.3221993167499</v>
+      </c>
+      <c r="E22" s="26">
+        <v>4479.3221993167499</v>
+      </c>
+      <c r="F22" s="26">
+        <v>17519.445690631299</v>
+      </c>
+      <c r="G22" s="26">
+        <v>3964.52210645285</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27E20891-E2DF-4D81-A0BA-B2F966AE29B4}">
   <dimension ref="A2:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -464,7 +3193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45292</v>
       </c>
@@ -472,7 +3201,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45293</v>
       </c>
@@ -480,7 +3209,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45294</v>
       </c>
@@ -488,7 +3217,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45295</v>
       </c>
@@ -496,7 +3225,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45296</v>
       </c>
@@ -504,7 +3233,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -518,58 +3247,78 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>100000</v>
       </c>
       <c r="B10" s="3">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="C10">
         <v>5</v>
       </c>
       <c r="D10" s="2">
         <f>PMT(B10/12,C10*12,-A10)</f>
-        <v>1841.6522055266353</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2027.6394288413683</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>200000</v>
       </c>
       <c r="B11" s="4">
-        <v>4.4999999999999998E-2</v>
+        <v>0.01</v>
       </c>
       <c r="C11">
         <v>8</v>
       </c>
       <c r="D11" s="2">
         <f>PMT(B11/12,C11*12,-A11)</f>
-        <v>2484.646884441177</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2168.6451317618535</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>300000</v>
       </c>
       <c r="B12" s="3">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="C12">
         <v>10</v>
       </c>
       <c r="D12" s="2">
         <f>PMT(B12/12,C12*12,-A12)</f>
-        <v>3639.8278306607076</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+        <v>4479.3221993167454</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
     </row>
   </sheetData>
+  <scenarios current="2" show="0" sqref="B9:D12">
+    <scenario name=" change" locked="1" count="4" user="Shakul Malik" comment="Created by Shakul Malik on 5/27/2024">
+      <inputCells r="B9" val="Interest Rate"/>
+      <inputCells r="B10" val="0.08" numFmtId="9"/>
+      <inputCells r="B11" val="0.01" numFmtId="10"/>
+      <inputCells r="B12" val="0.13" numFmtId="9"/>
+    </scenario>
+    <scenario name="interest change" locked="1" count="4" user="Shakul Malik" comment="Created by Shakul Malik on 5/27/2024">
+      <inputCells r="B9" val="Interest Rate"/>
+      <inputCells r="B10" val="0.02" numFmtId="9"/>
+      <inputCells r="B11" val="0.09" numFmtId="10"/>
+      <inputCells r="B12" val="0.7" numFmtId="9"/>
+    </scenario>
+    <scenario name="cccc" locked="1" count="4" user="Shakul Malik" comment="Created by Shakul Malik on 5/27/2024">
+      <inputCells r="B9" val="Interest Rate"/>
+      <inputCells r="B10" val="0.01" numFmtId="9"/>
+      <inputCells r="B11" val="0.09" numFmtId="10"/>
+      <inputCells r="B12" val="0.1" numFmtId="9"/>
+    </scenario>
+  </scenarios>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>